--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H2">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I2">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J2">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N2">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O2">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P2">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q2">
-        <v>1762.268898832639</v>
+        <v>342.5262048931011</v>
       </c>
       <c r="R2">
-        <v>15860.42008949375</v>
+        <v>3082.735844037909</v>
       </c>
       <c r="S2">
-        <v>0.1313011990070776</v>
+        <v>0.05636092346983421</v>
       </c>
       <c r="T2">
-        <v>0.1313011990070776</v>
+        <v>0.05636092346983422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H3">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I3">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J3">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>209.032433</v>
       </c>
       <c r="O3">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P3">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q3">
-        <v>6181.989044563194</v>
+        <v>1821.691106476009</v>
       </c>
       <c r="R3">
-        <v>55637.90140106874</v>
+        <v>16395.21995828408</v>
       </c>
       <c r="S3">
-        <v>0.4606008619555465</v>
+        <v>0.2997498923325148</v>
       </c>
       <c r="T3">
-        <v>0.4606008619555465</v>
+        <v>0.2997498923325149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H4">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I4">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J4">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N4">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O4">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P4">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q4">
-        <v>2356.8822265875</v>
+        <v>1003.14828963226</v>
       </c>
       <c r="R4">
-        <v>21211.9400392875</v>
+        <v>9028.33460669034</v>
       </c>
       <c r="S4">
-        <v>0.175603996912391</v>
+        <v>0.1650628862060464</v>
       </c>
       <c r="T4">
-        <v>0.175603996912391</v>
+        <v>0.1650628862060465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N5">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O5">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P5">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q5">
-        <v>355.85558317215</v>
+        <v>234.7193549821501</v>
       </c>
       <c r="R5">
-        <v>3202.70024854935</v>
+        <v>2112.47419483935</v>
       </c>
       <c r="S5">
-        <v>0.02651369763991022</v>
+        <v>0.03862186137602653</v>
       </c>
       <c r="T5">
-        <v>0.02651369763991022</v>
+        <v>0.03862186137602653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>209.032433</v>
       </c>
       <c r="O6">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P6">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q6">
         <v>1248.33123825435</v>
@@ -818,10 +818,10 @@
         <v>11234.98114428915</v>
       </c>
       <c r="S6">
-        <v>0.09300929526099076</v>
+        <v>0.2054064780422115</v>
       </c>
       <c r="T6">
-        <v>0.09300929526099076</v>
+        <v>0.2054064780422115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N7">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O7">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P7">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q7">
-        <v>475.9260631371</v>
+        <v>687.416951259</v>
       </c>
       <c r="R7">
-        <v>4283.3345682339</v>
+        <v>6186.752561331</v>
       </c>
       <c r="S7">
-        <v>0.0354597773188948</v>
+        <v>0.1131109200648362</v>
       </c>
       <c r="T7">
-        <v>0.03545977731889481</v>
+        <v>0.1131109200648362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H8">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I8">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J8">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>19.86261233333333</v>
+        <v>13.10121233333333</v>
       </c>
       <c r="N8">
-        <v>59.58783700000001</v>
+        <v>39.303637</v>
       </c>
       <c r="O8">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="P8">
-        <v>0.1710751304955294</v>
+        <v>0.1081423012186565</v>
       </c>
       <c r="Q8">
-        <v>177.9732240013521</v>
+        <v>79.97525455406812</v>
       </c>
       <c r="R8">
-        <v>1601.759016012169</v>
+        <v>719.777290986613</v>
       </c>
       <c r="S8">
-        <v>0.01326023384854162</v>
+        <v>0.01315951637279572</v>
       </c>
       <c r="T8">
-        <v>0.01326023384854163</v>
+        <v>0.01315951637279572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H9">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I9">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J9">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>209.032433</v>
       </c>
       <c r="O9">
-        <v>0.6001266794307873</v>
+        <v>0.5751439322003361</v>
       </c>
       <c r="P9">
-        <v>0.6001266794307872</v>
+        <v>0.5751439322003362</v>
       </c>
       <c r="Q9">
-        <v>624.3249947444244</v>
+        <v>425.3403327338685</v>
       </c>
       <c r="R9">
-        <v>5618.92495269982</v>
+        <v>3828.062994604816</v>
       </c>
       <c r="S9">
-        <v>0.04651652221425</v>
+        <v>0.06998756182560975</v>
       </c>
       <c r="T9">
-        <v>0.04651652221425</v>
+        <v>0.06998756182560976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H10">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I10">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J10">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.564526</v>
+        <v>38.36920666666666</v>
       </c>
       <c r="N10">
-        <v>79.693578</v>
+        <v>115.10762</v>
       </c>
       <c r="O10">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810073</v>
       </c>
       <c r="P10">
-        <v>0.2287981900736832</v>
+        <v>0.3167137665810074</v>
       </c>
       <c r="Q10">
-        <v>238.023793494354</v>
+        <v>234.2216118730422</v>
       </c>
       <c r="R10">
-        <v>2142.214141449186</v>
+        <v>2107.99450685738</v>
       </c>
       <c r="S10">
-        <v>0.01773441584239737</v>
+        <v>0.03853996031012467</v>
       </c>
       <c r="T10">
-        <v>0.01773441584239737</v>
+        <v>0.03853996031012467</v>
       </c>
     </row>
   </sheetData>
